--- a/C_基礎課程時程表_初版.xlsx
+++ b/C_基礎課程時程表_初版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\線下教學\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\線下教學\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
